--- a/results_method1_and_2/chartbars/classical_approach_echos_b.xlsx
+++ b/results_method1_and_2/chartbars/classical_approach_echos_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1/echos_b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1_2/echos_b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4DCBB4A06381AAC71CFCF93E94C8DA693EDF29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B7572D-760A-412B-B8B6-9536CE0F185A}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_AD4DCBB4A06381AAC71CFCF93E94C8DA693EDF29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994A8CA5-05FC-4AEE-82FB-1730D50A8C9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
   <si>
     <t>echos_b</t>
   </si>
@@ -144,16 +144,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +178,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -270,9 +277,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$2:$T$2</c:f>
+              <c:f>Φύλλο1!$R$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>G</c:v>
                 </c:pt>
@@ -281,24 +288,42 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$3:$T$3</c:f>
+              <c:f>Φύλλο1!$R$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9375</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,9 +360,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$2:$T$2</c:f>
+              <c:f>Φύλλο1!$R$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>G</c:v>
                 </c:pt>
@@ -346,24 +371,42 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$4:$T$4</c:f>
+              <c:f>Φύλλο1!$R$4:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.375</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5625</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,9 +443,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$2:$T$2</c:f>
+              <c:f>Φύλλο1!$R$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>G</c:v>
                 </c:pt>
@@ -411,24 +454,42 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$5:$T$5</c:f>
+              <c:f>Φύλλο1!$R$5:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,6 +568,8 @@
         <c:axId val="1994643824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -558,6 +621,8 @@
         <c:crossAx val="1994644656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -645,7 +710,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -780,19 +845,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1875</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1875</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5625</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,19 +922,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4375</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,13 +1005,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3125</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6875</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,6 +1090,8 @@
         <c:axId val="1402243312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1076,6 +1143,8 @@
         <c:crossAx val="1402241232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1163,7 +1232,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1270,31 +1339,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$19:$Y$19</c:f>
+              <c:f>Φύλλο1!$R$19:$W$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>G</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>a</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>b</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>d</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>g</c:v>
                 </c:pt>
               </c:strCache>
@@ -1302,32 +1365,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$20:$Y$20</c:f>
+              <c:f>Φύλλο1!$R$20:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1365,31 +1422,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$19:$Y$19</c:f>
+              <c:f>Φύλλο1!$R$19:$W$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>G</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>a</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>b</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>d</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>g</c:v>
                 </c:pt>
               </c:strCache>
@@ -1397,10 +1448,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$21:$Y$21</c:f>
+              <c:f>Φύλλο1!$R$21:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1408,22 +1459,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1875</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,31 +1505,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Φύλλο1!$R$19:$Y$19</c:f>
+              <c:f>Φύλλο1!$R$19:$W$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>G</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>a</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>b</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>d</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>g</c:v>
                 </c:pt>
               </c:strCache>
@@ -1492,10 +1531,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο1!$R$22:$Y$22</c:f>
+              <c:f>Φύλλο1!$R$22:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1503,22 +1542,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3125</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,6 +1630,8 @@
         <c:axId val="2017249248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1648,6 +1683,8 @@
         <c:crossAx val="2017248416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1735,7 +1772,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1879,25 +1916,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1983,19 +2020,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1875</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4375</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,16 +2115,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6875</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2169,6 +2206,8 @@
         <c:axId val="2079344432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2220,6 +2259,8 @@
         <c:crossAx val="2079344016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4890,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,12 +4941,12 @@
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4960,225 +5001,261 @@
       <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.9375</v>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>15</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="S4" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.5625</v>
+      <c r="R4" s="4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>13</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.875</v>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>14</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5240,233 +5317,233 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R12" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="U12" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.5625</v>
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>3</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0.5</v>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>3</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.25</v>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0.6875</v>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>4</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5477,30 +5554,26 @@
       <c r="Q19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="2" t="s">
+      <c r="R19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="S19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="T19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="U19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="V19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="W19" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -5548,258 +5621,246 @@
       <c r="Q20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>4</v>
+      </c>
+      <c r="U20" s="4">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4">
+        <v>8</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>3</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>4</v>
+      </c>
+      <c r="W21" s="4">
+        <v>8</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="W22" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>7</v>
+      </c>
+      <c r="W22" s="4">
+        <v>6</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="L23" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.3125</v>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>7</v>
+      </c>
+      <c r="N23" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5807,28 +5868,28 @@
       <c r="Q26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="V26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="X26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="Y26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5836,28 +5897,28 @@
       <c r="Q27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R27" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X27" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="Y27" s="1">
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>2</v>
+      </c>
+      <c r="U27" s="4">
+        <v>2</v>
+      </c>
+      <c r="V27" s="4">
+        <v>2</v>
+      </c>
+      <c r="W27" s="4">
+        <v>8</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5865,62 +5926,146 @@
       <c r="Q28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <v>3</v>
+      </c>
+      <c r="W28" s="4">
+        <v>7</v>
+      </c>
+      <c r="X28" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="Y29" s="1">
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>2</v>
+      </c>
+      <c r="W29" s="4">
+        <v>11</v>
+      </c>
+      <c r="X29" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:N6 B12:N15 B21:N24">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:N6">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:N15">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:N24">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:W5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:W3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:W4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:W5">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5932,8 +6077,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:T3">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="R12:V14">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5944,7 +6089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:T4">
+  <conditionalFormatting sqref="R12:V12">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5956,19 +6101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:T5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:T5">
+  <conditionalFormatting sqref="R13:V13">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5980,7 +6113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:V12">
+  <conditionalFormatting sqref="R14:V14">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5992,8 +6125,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:V13">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="R20:W22">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6004,7 +6137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:V14">
+  <conditionalFormatting sqref="R20:W20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6016,19 +6149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:Y20">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21:Y21">
+  <conditionalFormatting sqref="R21:W21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6040,68 +6161,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:Y22">
+  <conditionalFormatting sqref="R22:W22">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27:Y27">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28:Y28">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29:Y29">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:V14">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:Y22">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6124,6 +6185,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R27:Y27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28:Y28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29:Y29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results_method1_and_2/chartbars/classical_approach_echos_b.xlsx
+++ b/results_method1_and_2/chartbars/classical_approach_echos_b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1_2/echos_b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_AD4DCBB4A06381AAC71CFCF93E94C8DA693EDF29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994A8CA5-05FC-4AEE-82FB-1730D50A8C9D}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_AD4DCBB4A06381AAC71CFCF93E94C8DA693EDF29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480DC3ED-403D-4B02-80F4-DB77A1EC7C61}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -178,7 +178,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -710,7 +710,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -851,10 +851,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -928,13 +928,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1232,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1459,10 +1459,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -1548,10 +1548,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1772,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2020,13 +2020,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -2115,13 +2115,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -4931,14 +4931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH32" sqref="AH32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N6" sqref="A2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -4950,43 +4950,43 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="3" t="s">
@@ -5096,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <v>9</v>
@@ -5370,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <v>9</v>
@@ -5399,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -5432,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13" s="4">
         <v>0</v>
       </c>
       <c r="V13" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4">
         <v>4</v>
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -5695,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="4">
         <v>4</v>
@@ -5729,13 +5729,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
@@ -5768,10 +5768,10 @@
         <v>1</v>
       </c>
       <c r="V22" s="4">
+        <v>6</v>
+      </c>
+      <c r="W22" s="4">
         <v>7</v>
-      </c>
-      <c r="W22" s="4">
-        <v>6</v>
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -5814,10 +5814,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="4">
+        <v>6</v>
+      </c>
+      <c r="N23" s="4">
         <v>7</v>
-      </c>
-      <c r="N23" s="4">
-        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -5834,13 +5834,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
       </c>
       <c r="G24" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4">
         <v>2</v>
@@ -5936,13 +5936,13 @@
         <v>0</v>
       </c>
       <c r="U28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W28" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X28" s="4">
         <v>2</v>
@@ -5965,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="4">
         <v>2</v>
       </c>
       <c r="W29" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X29" s="4">
         <v>2</v>
@@ -5982,7 +5982,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:N6 B12:N15 B21:N24">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5994,7 +5994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:N6">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6006,7 +6006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:N15">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6018,7 +6018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:N24">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6030,7 +6030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:W5">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6042,7 +6042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:W3">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6054,7 +6054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:W4">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6066,7 +6066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:W5">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6077,8 +6077,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:V14">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="R14:V14">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6089,7 +6089,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:V12">
+  <conditionalFormatting sqref="R14:V14">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13:V13">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6102,7 +6114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:V13">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6113,7 +6125,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:V14">
+  <conditionalFormatting sqref="R20:W22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:W20">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21:W21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6125,7 +6161,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:W22">
+  <conditionalFormatting sqref="R22:W22">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:Y29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6137,7 +6185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:W20">
+  <conditionalFormatting sqref="R27:Y27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6149,7 +6197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R21:W21">
+  <conditionalFormatting sqref="R28:Y28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6161,7 +6209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:W22">
+  <conditionalFormatting sqref="R29:Y29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6173,8 +6221,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27:Y29">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="R13:V14">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6185,8 +6233,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27:Y27">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="R12:V12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6197,20 +6245,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R28:Y28">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29:Y29">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="R12:V12">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
